--- a/WTC/Project Outputs for water_treatment_controller/water_treatment_controller_BOM.xlsx
+++ b/WTC/Project Outputs for water_treatment_controller/water_treatment_controller_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\water_treatment_controller\WTC\Project Outputs for water_treatment_controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C647197D-4281-447C-A05A-D0C969B06267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0857C9C8-2ED1-40D9-A75B-04FA4F6312E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{9BD4BE5B-B546-4424-8739-79E2F26A019C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9BD4BE5B-B546-4424-8739-79E2F26A019C}"/>
   </bookViews>
   <sheets>
     <sheet name="water_treatment_controller_BOM" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="195">
   <si>
     <t>Comment</t>
   </si>
@@ -608,13 +608,25 @@
   </si>
   <si>
     <t>Oscillator</t>
+  </si>
+  <si>
+    <t>нет в наличае</t>
+  </si>
+  <si>
+    <t>нет в наличае замена на п.6</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>в наличае</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,8 +635,24 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -637,8 +665,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -661,19 +699,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -985,16 +1051,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195F45C5-4BB3-4386-8796-94FCA560A3AB}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="19" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" customWidth="1"/>
+    <col min="4" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1030,11 +1102,11 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1050,11 +1122,11 @@
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1070,11 +1142,11 @@
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1090,11 +1162,11 @@
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1110,11 +1182,11 @@
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -1132,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -1148,11 +1220,14 @@
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -1168,11 +1243,11 @@
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -1188,11 +1263,11 @@
       <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -1208,11 +1283,11 @@
       <c r="E11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1228,11 +1303,11 @@
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1248,11 +1323,11 @@
       <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -1268,11 +1343,11 @@
       <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -1288,11 +1363,14 @@
       <c r="E15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
@@ -1308,11 +1386,11 @@
       <c r="E16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
@@ -1328,11 +1406,11 @@
       <c r="E17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
@@ -1348,11 +1426,11 @@
       <c r="E18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>59</v>
       </c>
@@ -1371,8 +1449,11 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
@@ -1391,8 +1472,11 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>67</v>
       </c>
@@ -1411,8 +1495,9 @@
       <c r="F21" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>71</v>
       </c>
@@ -1431,8 +1516,9 @@
       <c r="F22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>73</v>
       </c>
@@ -1451,8 +1537,9 @@
       <c r="F23" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>75</v>
       </c>
@@ -1472,7 +1559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>79</v>
       </c>
@@ -1488,11 +1575,11 @@
       <c r="E25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>83</v>
       </c>
@@ -1508,11 +1595,11 @@
       <c r="E26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>86</v>
       </c>
@@ -1528,11 +1615,11 @@
       <c r="E27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="5">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>91</v>
       </c>
@@ -1548,11 +1635,11 @@
       <c r="E28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>93</v>
       </c>
@@ -1568,11 +1655,11 @@
       <c r="E29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>96</v>
       </c>
@@ -1588,11 +1675,11 @@
       <c r="E30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>98</v>
       </c>
@@ -1608,11 +1695,11 @@
       <c r="E31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>100</v>
       </c>
@@ -1628,7 +1715,7 @@
       <c r="E32" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1648,7 +1735,7 @@
       <c r="E33" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1668,7 +1755,7 @@
       <c r="E34" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1688,7 +1775,7 @@
       <c r="E35" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1708,7 +1795,7 @@
       <c r="E36" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1728,7 +1815,7 @@
       <c r="E37" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1748,7 +1835,7 @@
       <c r="E38" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1768,7 +1855,7 @@
       <c r="E39" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1788,7 +1875,7 @@
       <c r="E40" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1808,7 +1895,7 @@
       <c r="E41" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1828,7 +1915,7 @@
       <c r="E42" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="5">
         <v>6</v>
       </c>
     </row>
@@ -1848,7 +1935,7 @@
       <c r="E43" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1868,7 +1955,7 @@
       <c r="E44" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1888,7 +1975,7 @@
       <c r="E45" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1908,7 +1995,7 @@
       <c r="E46" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1928,7 +2015,7 @@
       <c r="E47" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1948,11 +2035,11 @@
       <c r="E48" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>147</v>
       </c>
@@ -1968,11 +2055,11 @@
       <c r="E49" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>149</v>
       </c>
@@ -1988,11 +2075,11 @@
       <c r="E50" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>154</v>
       </c>
@@ -2008,11 +2095,11 @@
       <c r="E51" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>156</v>
       </c>
@@ -2028,11 +2115,11 @@
       <c r="E52" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
         <v>158</v>
@@ -2046,11 +2133,11 @@
       <c r="E53" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>7</v>
       </c>
@@ -2066,11 +2153,11 @@
       <c r="E54" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>7</v>
       </c>
@@ -2086,11 +2173,11 @@
       <c r="E55" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="2" t="s">
         <v>7</v>
@@ -2104,11 +2191,11 @@
       <c r="E56" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>7</v>
       </c>
@@ -2124,11 +2211,11 @@
       <c r="E57" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="2" t="s">
         <v>7</v>
@@ -2145,8 +2232,11 @@
       <c r="F58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="2" t="s">
         <v>7</v>
@@ -2163,8 +2253,11 @@
       <c r="F59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
         <v>7</v>
@@ -2178,11 +2271,11 @@
       <c r="E60" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>181</v>
       </c>
@@ -2198,11 +2291,11 @@
       <c r="E61" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F61" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>186</v>
       </c>
@@ -2218,7 +2311,7 @@
       <c r="E62" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="5">
         <v>1</v>
       </c>
     </row>
